--- a/results/estimates.xlsx
+++ b/results/estimates.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhilgard\Documents\GitHub\craig_meta\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhilgard.APP401B-2-U2\Documents\GitHub\craig_meta\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="estimates" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="286">
   <si>
     <t>Outcome</t>
   </si>
@@ -663,72 +663,18 @@
     <t>Physiological Arousal</t>
   </si>
   <si>
-    <t>0 [0, 83]</t>
-  </si>
-  <si>
-    <t>58 [44, 85]</t>
-  </si>
-  <si>
     <t>94 [88, 98]</t>
   </si>
   <si>
     <t>0 [0, 7]</t>
   </si>
   <si>
-    <t>62 [30, 86]</t>
-  </si>
-  <si>
-    <t>79 [65, 89]</t>
-  </si>
-  <si>
-    <t>33 [0, 65]</t>
-  </si>
-  <si>
-    <t>29 [0, 64]</t>
-  </si>
-  <si>
-    <t>58 [22, 87]</t>
-  </si>
-  <si>
-    <t>82 [68, 93]</t>
-  </si>
-  <si>
-    <t>53 [0, 83]</t>
-  </si>
-  <si>
-    <t>31 [0, 66]</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 0 [0, 86]</t>
-  </si>
-  <si>
     <t>60 [47, 86]</t>
   </si>
   <si>
     <t xml:space="preserve"> 0 [*]</t>
   </si>
   <si>
-    <t>65 [35, 87]</t>
-  </si>
-  <si>
-    <t>81 [69, 90]</t>
-  </si>
-  <si>
-    <t>32 [0, 65]</t>
-  </si>
-  <si>
-    <t>27 [0, 62]</t>
-  </si>
-  <si>
-    <t>61 [26, 87]</t>
-  </si>
-  <si>
-    <t>84 [71, 93]</t>
-  </si>
-  <si>
-    <t>54 [0, 84]</t>
-  </si>
-  <si>
     <t>66 [45, 91]</t>
   </si>
   <si>
@@ -744,24 +690,12 @@
     <t xml:space="preserve"> 4 [0, 17]</t>
   </si>
   <si>
-    <t>67 [38, 86]</t>
-  </si>
-  <si>
-    <t>82 [70, 90]</t>
-  </si>
-  <si>
     <t>35 [0, 70]</t>
   </si>
   <si>
     <t>27 [0, 67]</t>
   </si>
   <si>
-    <t>62 [27, 85]</t>
-  </si>
-  <si>
-    <t>84 [70, 93]</t>
-  </si>
-  <si>
     <t>50 [0, 80]</t>
   </si>
   <si>
@@ -769,12 +703,189 @@
   </si>
   <si>
     <t>I2</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 [ 0, 83]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 [ 0, 86]</t>
+  </si>
+  <si>
+    <t>58 [45, 85]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0 [ 0, 61]</t>
+  </si>
+  <si>
+    <t>87 [77, 94]</t>
+  </si>
+  <si>
+    <t>88 [78, 94]</t>
+  </si>
+  <si>
+    <t>90 [84, 94]</t>
+  </si>
+  <si>
+    <t>91 [85, 94]</t>
+  </si>
+  <si>
+    <t>33 [ 0, 65]</t>
+  </si>
+  <si>
+    <t>32 [ 0, 65]</t>
+  </si>
+  <si>
+    <t>29 [ 0, 64]</t>
+  </si>
+  <si>
+    <t>27 [ 0, 62]</t>
+  </si>
+  <si>
+    <t>88 [76, 95]</t>
+  </si>
+  <si>
+    <t>88 [77, 95]</t>
+  </si>
+  <si>
+    <t>91 [84, 96]</t>
+  </si>
+  <si>
+    <t>53 [ 0, 83]</t>
+  </si>
+  <si>
+    <t>54 [ 0, 84]</t>
+  </si>
+  <si>
+    <t>31 [ 0, 66]</t>
+  </si>
+  <si>
+    <t>.14 [ .06, .23]</t>
+  </si>
+  <si>
+    <t>.24 [ .08, .36]</t>
+  </si>
+  <si>
+    <t>.24 [ .11, .35]</t>
+  </si>
+  <si>
+    <t>.17 [ .04, .29]</t>
+  </si>
+  <si>
+    <t>.16 [ .12, .24]</t>
+  </si>
+  <si>
+    <t>.15 [ .09, .21]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .13 [ .04, .21]</t>
+  </si>
+  <si>
+    <t>.15 [ .10, .20]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .29 [ .16, .41]</t>
+  </si>
+  <si>
+    <t>.30 [ .23, .37]</t>
+  </si>
+  <si>
+    <t>.28 [ .25, .32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .21 [ .12, .28]</t>
+  </si>
+  <si>
+    <t>.24 [ .19, .28]</t>
+  </si>
+  <si>
+    <t>.23 [ .20, .26]</t>
+  </si>
+  <si>
+    <t>.18 [ .11, .24]</t>
+  </si>
+  <si>
+    <t>.24 [ .15, .31]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .11 [ .00, .22]</t>
+  </si>
+  <si>
+    <t>.16 [ .10, .21]</t>
+  </si>
+  <si>
+    <t>.24 [ .14, .32]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .24 [ .07, .39]</t>
+  </si>
+  <si>
+    <t>.23 [ .14, .32]</t>
+  </si>
+  <si>
+    <t>.19 [ .14, .24]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> .20 [ .05, .33]</t>
+  </si>
+  <si>
+    <t>.22 [ .13, .30]</t>
+  </si>
+  <si>
+    <t>.17 [ .14, .21]</t>
+  </si>
+  <si>
+    <t>.21 [ .04, .37]</t>
+  </si>
+  <si>
+    <t>.26 [ .08, .37]</t>
+  </si>
+  <si>
+    <t>.09 [ .00, .17]</t>
+  </si>
+  <si>
+    <t>88 [77, 93]</t>
+  </si>
+  <si>
+    <t>91 [84, 94]</t>
+  </si>
+  <si>
+    <t>87 [75, 94]</t>
+  </si>
+  <si>
+    <t>91 [83, 95]</t>
+  </si>
+  <si>
+    <t>.29 [.27, .30]</t>
+  </si>
+  <si>
+    <t>.30 [.25, .35]</t>
+  </si>
+  <si>
+    <t>.21 [.20, .22]</t>
+  </si>
+  <si>
+    <t>.24 [.21, .28]</t>
+  </si>
+  <si>
+    <t>.21 [.19, .23]</t>
+  </si>
+  <si>
+    <t>.21 [.15, .28]</t>
+  </si>
+  <si>
+    <t>.18 [.17, .20]</t>
+  </si>
+  <si>
+    <t>.21 [.15, .27]</t>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode=".00"/>
   </numFmts>
@@ -1263,7 +1374,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1275,6 +1386,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2295,19 +2407,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5" t="s">
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -3035,14 +3147,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:G19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -3055,6 +3167,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>285</v>
+      </c>
       <c r="C1" s="3" t="s">
         <v>3</v>
       </c>
@@ -3068,19 +3186,19 @@
         <v>164</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -3102,7 +3220,7 @@
         <v>125</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>235</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -3125,7 +3243,7 @@
         <v>129</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>236</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -3148,7 +3266,7 @@
         <v>121</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>237</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -3171,19 +3289,19 @@
         <v>133</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>238</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3205,7 +3323,7 @@
         <v>135</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>239</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -3228,7 +3346,7 @@
         <v>139</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -3239,19 +3357,19 @@
         <v>2</v>
       </c>
       <c r="C10" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D10" s="1">
-        <v>11615</v>
+        <v>12391</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>140</v>
+        <v>277</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>141</v>
+        <v>278</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -3262,31 +3380,31 @@
         <v>118</v>
       </c>
       <c r="C11" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D11" s="1">
-        <v>28337</v>
+        <v>29113</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>142</v>
+        <v>279</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>143</v>
+        <v>280</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3308,7 +3426,7 @@
         <v>153</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>242</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -3331,7 +3449,7 @@
         <v>156</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>243</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -3342,19 +3460,19 @@
         <v>2</v>
       </c>
       <c r="C15" s="1">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D15" s="1">
-        <v>7221</v>
+        <v>7997</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>157</v>
+        <v>281</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>158</v>
+        <v>282</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -3365,31 +3483,31 @@
         <v>118</v>
       </c>
       <c r="C16" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1">
-        <v>12236</v>
+        <v>13012</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>159</v>
+        <v>283</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>160</v>
+        <v>284</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3411,7 +3529,7 @@
         <v>147</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -3434,7 +3552,7 @@
         <v>150</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3453,8 +3571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:H7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3490,16 +3608,16 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
     </row>
@@ -3510,22 +3628,22 @@
       <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>127</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="H3" s="2">
+      <c r="D3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E3" t="s">
+        <v>245</v>
+      </c>
+      <c r="F3" t="s">
+        <v>228</v>
+      </c>
+      <c r="G3" t="s">
+        <v>246</v>
+      </c>
+      <c r="H3" s="5">
         <v>0.21</v>
       </c>
     </row>
@@ -3536,22 +3654,22 @@
       <c r="B4" t="s">
         <v>118</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>130</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="D4" t="s">
+        <v>229</v>
+      </c>
+      <c r="E4" t="s">
         <v>131</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="H4" s="2">
+      <c r="F4" t="s">
+        <v>215</v>
+      </c>
+      <c r="G4" t="s">
+        <v>247</v>
+      </c>
+      <c r="H4" s="5">
         <v>0.2</v>
       </c>
     </row>
@@ -3588,36 +3706,36 @@
       <c r="B6" t="s">
         <v>118</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>134</v>
       </c>
-      <c r="D6" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="D6" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" t="s">
+        <v>213</v>
+      </c>
+      <c r="G6" t="s">
+        <v>249</v>
+      </c>
+      <c r="H6" s="5">
         <v>0.16</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -3626,22 +3744,22 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="G8" s="1" t="s">
+      <c r="D8" t="s">
+        <v>216</v>
+      </c>
+      <c r="E8" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" t="s">
         <v>138</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="5">
         <v>0.09</v>
       </c>
     </row>
@@ -3652,22 +3770,22 @@
       <c r="B9" t="s">
         <v>118</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G9" s="1" t="s">
+      <c r="C9" t="s">
+        <v>251</v>
+      </c>
+      <c r="D9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E9" t="s">
+        <v>252</v>
+      </c>
+      <c r="F9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G9" t="s">
         <v>138</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="5">
         <v>0.08</v>
       </c>
     </row>
@@ -3678,23 +3796,23 @@
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="H10" s="2">
-        <v>0.27</v>
+      <c r="C10" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" t="s">
+        <v>254</v>
+      </c>
+      <c r="F10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" t="s">
+        <v>255</v>
+      </c>
+      <c r="H10" s="5">
+        <v>0.28000000000000003</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -3704,36 +3822,36 @@
       <c r="B11" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="H11" s="2">
+      <c r="C11" t="s">
+        <v>256</v>
+      </c>
+      <c r="D11" t="s">
+        <v>233</v>
+      </c>
+      <c r="E11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F11" t="s">
+        <v>234</v>
+      </c>
+      <c r="G11" t="s">
+        <v>258</v>
+      </c>
+      <c r="H11" s="5">
         <v>0.23</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -3742,22 +3860,22 @@
       <c r="B13" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>154</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="H13" s="2">
+      <c r="D13" t="s">
+        <v>235</v>
+      </c>
+      <c r="E13" t="s">
+        <v>259</v>
+      </c>
+      <c r="F13" t="s">
+        <v>236</v>
+      </c>
+      <c r="G13" t="s">
+        <v>260</v>
+      </c>
+      <c r="H13" s="5">
         <v>0.19</v>
       </c>
     </row>
@@ -3768,22 +3886,22 @@
       <c r="B14" t="s">
         <v>118</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="H14" s="2">
+      <c r="C14" t="s">
+        <v>261</v>
+      </c>
+      <c r="D14" t="s">
+        <v>237</v>
+      </c>
+      <c r="E14" t="s">
+        <v>262</v>
+      </c>
+      <c r="F14" t="s">
+        <v>238</v>
+      </c>
+      <c r="G14" t="s">
+        <v>263</v>
+      </c>
+      <c r="H14" s="5">
         <v>0.19</v>
       </c>
     </row>
@@ -3794,23 +3912,23 @@
       <c r="B15" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="H15" s="2">
-        <v>0.17</v>
+      <c r="C15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" t="s">
+        <v>239</v>
+      </c>
+      <c r="E15" t="s">
+        <v>265</v>
+      </c>
+      <c r="F15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" t="s">
+        <v>266</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.19</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -3820,36 +3938,36 @@
       <c r="B16" t="s">
         <v>118</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H16" s="2">
-        <v>0.17</v>
+      <c r="C16" t="s">
+        <v>267</v>
+      </c>
+      <c r="D16" t="s">
+        <v>241</v>
+      </c>
+      <c r="E16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" t="s">
+        <v>241</v>
+      </c>
+      <c r="G16" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.18</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -3858,22 +3976,22 @@
       <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H18" s="2">
+      <c r="D18" t="s">
+        <v>242</v>
+      </c>
+      <c r="E18" t="s">
+        <v>270</v>
+      </c>
+      <c r="F18" t="s">
+        <v>243</v>
+      </c>
+      <c r="G18" t="s">
+        <v>271</v>
+      </c>
+      <c r="H18" s="5">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -3884,22 +4002,22 @@
       <c r="B19" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" t="s">
         <v>151</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="D19" t="s">
+        <v>244</v>
+      </c>
+      <c r="E19" t="s">
+        <v>272</v>
+      </c>
+      <c r="F19" t="s">
+        <v>236</v>
+      </c>
+      <c r="G19" t="s">
+        <v>271</v>
+      </c>
+      <c r="H19" s="5">
         <v>0.28000000000000003</v>
       </c>
     </row>
@@ -3919,5 +4037,6 @@
     <mergeCell ref="A12:H12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>